--- a/log/c620_op_log.xlsx
+++ b/log/c620_op_log.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Density_Feed Properties</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>test001</t>
+  </si>
+  <si>
+    <t>98</t>
   </si>
 </sst>
 </file>
@@ -404,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -477,6 +480,41 @@
         <v>193.9874420166016</v>
       </c>
     </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>0.8622681498527527</v>
+      </c>
+      <c r="C3">
+        <v>0.4516914784908295</v>
+      </c>
+      <c r="D3">
+        <v>0.7853282690048218</v>
+      </c>
+      <c r="E3">
+        <v>0.8787131905555725</v>
+      </c>
+      <c r="F3">
+        <v>0.8719253540039062</v>
+      </c>
+      <c r="G3">
+        <v>104.1471633911133</v>
+      </c>
+      <c r="H3">
+        <v>10.52988815307617</v>
+      </c>
+      <c r="I3">
+        <v>12.12589836120605</v>
+      </c>
+      <c r="J3">
+        <v>177.6365966796875</v>
+      </c>
+      <c r="K3">
+        <v>194.0085296630859</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/log/c620_op_log.xlsx
+++ b/log/c620_op_log.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Density_Feed Properties</t>
   </si>
@@ -46,10 +46,7 @@
     <t>Tatoray Stripper C620 Operation_Column Temp Profile_C620 Tray 34 (Control)_oC</t>
   </si>
   <si>
-    <t>test001</t>
-  </si>
-  <si>
-    <t>98</t>
+    <t>20210123</t>
   </si>
 </sst>
 </file>
@@ -407,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -450,69 +447,34 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.8622808456420898</v>
+        <v>0.8620922565460205</v>
       </c>
       <c r="C2">
-        <v>0.4529742300510406</v>
+        <v>0.4265280067920685</v>
       </c>
       <c r="D2">
-        <v>0.7818151712417603</v>
+        <v>0.8276968598365784</v>
       </c>
       <c r="E2">
-        <v>0.8787047266960144</v>
+        <v>0.8786906003952026</v>
       </c>
       <c r="F2">
-        <v>0.8719249367713928</v>
+        <v>0.872050404548645</v>
       </c>
       <c r="G2">
-        <v>104.6279678344727</v>
+        <v>97.02023315429688</v>
       </c>
       <c r="H2">
-        <v>10.51334190368652</v>
+        <v>12.54844188690186</v>
       </c>
       <c r="I2">
-        <v>12.11911582946777</v>
+        <v>12.04032421112061</v>
       </c>
       <c r="J2">
-        <v>177.6161041259766</v>
+        <v>178.1207275390625</v>
       </c>
       <c r="K2">
-        <v>193.9874420166016</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3">
-        <v>0.8622681498527527</v>
-      </c>
-      <c r="C3">
-        <v>0.4516914784908295</v>
-      </c>
-      <c r="D3">
-        <v>0.7853282690048218</v>
-      </c>
-      <c r="E3">
-        <v>0.8787131905555725</v>
-      </c>
-      <c r="F3">
-        <v>0.8719253540039062</v>
-      </c>
-      <c r="G3">
-        <v>104.1471633911133</v>
-      </c>
-      <c r="H3">
-        <v>10.52988815307617</v>
-      </c>
-      <c r="I3">
-        <v>12.12589836120605</v>
-      </c>
-      <c r="J3">
-        <v>177.6365966796875</v>
-      </c>
-      <c r="K3">
-        <v>194.0085296630859</v>
+        <v>194.7436828613281</v>
       </c>
     </row>
   </sheetData>

--- a/log/c620_op_log.xlsx
+++ b/log/c620_op_log.xlsx
@@ -1,78 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>Density_Feed Properties</t>
-  </si>
-  <si>
-    <t>Density_Vent Gas Production Rate and Composition</t>
-  </si>
-  <si>
-    <t>Density_Distillate Production Rate and Composition</t>
-  </si>
-  <si>
-    <t>Density_Sidedraw Production Rate and Composition</t>
-  </si>
-  <si>
-    <t>Density_Bottoms Production Rate and Composition</t>
-  </si>
-  <si>
-    <t>Tatoray Stripper C620 Operation_Yield Summary_Reflux Rate_m3/hr</t>
-  </si>
-  <si>
-    <t>Tatoray Stripper C620 Operation_Heat Duty_Condenser Heat Duty_Mkcal/hr</t>
-  </si>
-  <si>
-    <t>Tatoray Stripper C620 Operation_Heat Duty_Reboiler Heat Duty_Mkcal/hr</t>
-  </si>
-  <si>
-    <t>Tatoray Stripper C620 Operation_Column Temp Profile_C620 Tray 14 (Control)_oC</t>
-  </si>
-  <si>
-    <t>Tatoray Stripper C620 Operation_Column Temp Profile_C620 Tray 34 (Control)_oC</t>
-  </si>
-  <si>
-    <t>20210123</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -87,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -403,81 +420,109 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Density_Feed Properties</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Density_Vent Gas Production Rate and Composition</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Density_Distillate Production Rate and Composition</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Density_Sidedraw Production Rate and Composition</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Density_Bottoms Production Rate and Composition</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Tatoray Stripper C620 Operation_Yield Summary_Reflux Rate_m3/hr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Tatoray Stripper C620 Operation_Heat Duty_Condenser Heat Duty_Mkcal/hr</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Tatoray Stripper C620 Operation_Heat Duty_Reboiler Heat Duty_Mkcal/hr</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Tatoray Stripper C620 Operation_Column Temp Profile_C620 Tray 14 (Control)_oC</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Tatoray Stripper C620 Operation_Column Temp Profile_C620 Tray 34 (Control)_oC</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2">
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>0.8620922565460205</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>0.4265280067920685</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>0.8276968598365784</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>0.8786906003952026</v>
       </c>
-      <c r="F2">
-        <v>0.872050404548645</v>
-      </c>
-      <c r="G2">
+      <c r="F2" t="n">
+        <v>0.8720481395721436</v>
+      </c>
+      <c r="G2" t="n">
         <v>97.02023315429688</v>
       </c>
-      <c r="H2">
-        <v>12.54844188690186</v>
-      </c>
-      <c r="I2">
-        <v>12.04032421112061</v>
-      </c>
-      <c r="J2">
+      <c r="H2" t="n">
+        <v>12.55310249328613</v>
+      </c>
+      <c r="I2" t="n">
+        <v>12.04037284851074</v>
+      </c>
+      <c r="J2" t="n">
         <v>178.1207275390625</v>
       </c>
-      <c r="K2">
+      <c r="K2" t="n">
         <v>194.7436828613281</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/log/c620_op_log.xlsx
+++ b/log/c620_op_log.xlsx
@@ -488,11 +488,11 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>123456</t>
+          <t>123</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8620922565460205</v>
+        <v>0.8620919585227966</v>
       </c>
       <c r="C2" t="n">
         <v>0.4265280067920685</v>
@@ -504,22 +504,22 @@
         <v>0.8786906003952026</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8720481395721436</v>
+        <v>0.8718597888946533</v>
       </c>
       <c r="G2" t="n">
-        <v>97.02023315429688</v>
+        <v>97.02018737792969</v>
       </c>
       <c r="H2" t="n">
-        <v>12.55310249328613</v>
+        <v>14.78398036956787</v>
       </c>
       <c r="I2" t="n">
-        <v>12.04037284851074</v>
+        <v>12.06411457061768</v>
       </c>
       <c r="J2" t="n">
-        <v>178.1207275390625</v>
+        <v>178.1206817626953</v>
       </c>
       <c r="K2" t="n">
-        <v>194.7436828613281</v>
+        <v>194.7444610595703</v>
       </c>
     </row>
   </sheetData>

--- a/log/c620_op_log.xlsx
+++ b/log/c620_op_log.xlsx
@@ -488,11 +488,11 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>test</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8620919585227966</v>
+        <v>0.8620922565460205</v>
       </c>
       <c r="C2" t="n">
         <v>0.4265280067920685</v>
@@ -504,22 +504,22 @@
         <v>0.8786906003952026</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8718597888946533</v>
+        <v>0.8720412254333496</v>
       </c>
       <c r="G2" t="n">
-        <v>97.02018737792969</v>
+        <v>97.02023315429688</v>
       </c>
       <c r="H2" t="n">
-        <v>14.78398036956787</v>
+        <v>12.5676794052124</v>
       </c>
       <c r="I2" t="n">
-        <v>12.06411457061768</v>
+        <v>12.04052448272705</v>
       </c>
       <c r="J2" t="n">
-        <v>178.1206817626953</v>
+        <v>178.1207275390625</v>
       </c>
       <c r="K2" t="n">
-        <v>194.7444610595703</v>
+        <v>194.7437133789062</v>
       </c>
     </row>
   </sheetData>

--- a/log/c620_op_log.xlsx
+++ b/log/c620_op_log.xlsx
@@ -488,11 +488,11 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>8888</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8620922565460205</v>
+        <v>0.8621258139610291</v>
       </c>
       <c r="C2" t="n">
         <v>0.4265280067920685</v>
@@ -504,22 +504,22 @@
         <v>0.8786906003952026</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8720412254333496</v>
+        <v>0.8720192313194275</v>
       </c>
       <c r="G2" t="n">
-        <v>97.02023315429688</v>
+        <v>97.02018737792969</v>
       </c>
       <c r="H2" t="n">
-        <v>12.5676794052124</v>
+        <v>11.12952327728271</v>
       </c>
       <c r="I2" t="n">
-        <v>12.04052448272705</v>
+        <v>12.03643131256104</v>
       </c>
       <c r="J2" t="n">
-        <v>178.1207275390625</v>
+        <v>178.1206970214844</v>
       </c>
       <c r="K2" t="n">
-        <v>194.7437133789062</v>
+        <v>194.7407073974609</v>
       </c>
     </row>
   </sheetData>

--- a/log/c620_op_log.xlsx
+++ b/log/c620_op_log.xlsx
@@ -488,11 +488,11 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>8888</t>
+          <t>12345</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8621258139610291</v>
+        <v>0.8646228313446045</v>
       </c>
       <c r="C2" t="n">
         <v>0.4265280067920685</v>
@@ -504,22 +504,22 @@
         <v>0.8786906003952026</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8720192313194275</v>
+        <v>0.8721990585327148</v>
       </c>
       <c r="G2" t="n">
-        <v>97.02018737792969</v>
+        <v>97.02036285400391</v>
       </c>
       <c r="H2" t="n">
-        <v>11.12952327728271</v>
+        <v>14.15267753601074</v>
       </c>
       <c r="I2" t="n">
-        <v>12.03643131256104</v>
+        <v>12.0484619140625</v>
       </c>
       <c r="J2" t="n">
-        <v>178.1206970214844</v>
+        <v>178.1207427978516</v>
       </c>
       <c r="K2" t="n">
-        <v>194.7407073974609</v>
+        <v>194.7129821777344</v>
       </c>
     </row>
   </sheetData>

--- a/log/c620_op_log.xlsx
+++ b/log/c620_op_log.xlsx
@@ -488,11 +488,11 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>12345</t>
+          <t>4321</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8646228313446045</v>
+        <v>0.8646715879440308</v>
       </c>
       <c r="C2" t="n">
         <v>0.4265280067920685</v>
@@ -504,22 +504,22 @@
         <v>0.8786906003952026</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8721990585327148</v>
+        <v>0.8721960186958313</v>
       </c>
       <c r="G2" t="n">
-        <v>97.02036285400391</v>
+        <v>97.02027130126953</v>
       </c>
       <c r="H2" t="n">
-        <v>14.15267753601074</v>
+        <v>13.64983558654785</v>
       </c>
       <c r="I2" t="n">
-        <v>12.0484619140625</v>
+        <v>12.04043483734131</v>
       </c>
       <c r="J2" t="n">
-        <v>178.1207427978516</v>
+        <v>178.1207275390625</v>
       </c>
       <c r="K2" t="n">
-        <v>194.7129821777344</v>
+        <v>194.6712646484375</v>
       </c>
     </row>
   </sheetData>

--- a/log/c620_op_log.xlsx
+++ b/log/c620_op_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -664,6 +664,80 @@
         <v>194.6712646484375</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>a1</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8646729588508606</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4265280067920685</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8276968598365784</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8786906003952026</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.8721588850021362</v>
+      </c>
+      <c r="G7" t="n">
+        <v>97.02021026611328</v>
+      </c>
+      <c r="H7" t="n">
+        <v>12.51860427856445</v>
+      </c>
+      <c r="I7" t="n">
+        <v>12.0368595123291</v>
+      </c>
+      <c r="J7" t="n">
+        <v>178.1204681396484</v>
+      </c>
+      <c r="K7" t="n">
+        <v>194.4346466064453</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.8646729588508606</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4265280067920685</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8276968598365784</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8786906003952026</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.8721616268157959</v>
+      </c>
+      <c r="G8" t="n">
+        <v>97.02021026611328</v>
+      </c>
+      <c r="H8" t="n">
+        <v>12.52402591705322</v>
+      </c>
+      <c r="I8" t="n">
+        <v>12.03680610656738</v>
+      </c>
+      <c r="J8" t="n">
+        <v>178.1204681396484</v>
+      </c>
+      <c r="K8" t="n">
+        <v>194.4124450683594</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/log/c620_op_log.xlsx
+++ b/log/c620_op_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -738,6 +738,80 @@
         <v>194.4124450683594</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>a1</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.8646729588508606</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4265280067920685</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8276968598365784</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8786906003952026</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.8721588850021362</v>
+      </c>
+      <c r="G9" t="n">
+        <v>97.02021026611328</v>
+      </c>
+      <c r="H9" t="n">
+        <v>12.51860427856445</v>
+      </c>
+      <c r="I9" t="n">
+        <v>12.0368595123291</v>
+      </c>
+      <c r="J9" t="n">
+        <v>178.1204681396484</v>
+      </c>
+      <c r="K9" t="n">
+        <v>194.4346466064453</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.8646729588508606</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4265280067920685</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8276968598365784</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8786906003952026</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.8721616268157959</v>
+      </c>
+      <c r="G10" t="n">
+        <v>97.02021026611328</v>
+      </c>
+      <c r="H10" t="n">
+        <v>12.52402591705322</v>
+      </c>
+      <c r="I10" t="n">
+        <v>12.03680610656738</v>
+      </c>
+      <c r="J10" t="n">
+        <v>178.1204681396484</v>
+      </c>
+      <c r="K10" t="n">
+        <v>194.4124450683594</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/log/c620_op_log.xlsx
+++ b/log/c620_op_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -812,6 +812,80 @@
         <v>194.4124450683594</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>a1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.8646729588508606</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4265280067920685</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8276968598365784</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8786906003952026</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.8721588850021362</v>
+      </c>
+      <c r="G11" t="n">
+        <v>97.02021026611328</v>
+      </c>
+      <c r="H11" t="n">
+        <v>12.51860427856445</v>
+      </c>
+      <c r="I11" t="n">
+        <v>12.0368595123291</v>
+      </c>
+      <c r="J11" t="n">
+        <v>178.1204681396484</v>
+      </c>
+      <c r="K11" t="n">
+        <v>194.4346466064453</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.8646729588508606</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.4265280067920685</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8276968598365784</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8786906003952026</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.8721616268157959</v>
+      </c>
+      <c r="G12" t="n">
+        <v>97.02021026611328</v>
+      </c>
+      <c r="H12" t="n">
+        <v>12.52402591705322</v>
+      </c>
+      <c r="I12" t="n">
+        <v>12.03680610656738</v>
+      </c>
+      <c r="J12" t="n">
+        <v>178.1204681396484</v>
+      </c>
+      <c r="K12" t="n">
+        <v>194.4124450683594</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/log/c620_op_log.xlsx
+++ b/log/c620_op_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -886,6 +886,228 @@
         <v>194.4124450683594</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>60000</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.8646729588508606</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.4265280067920685</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8276968598365784</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8786906003952026</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.8721588850021362</v>
+      </c>
+      <c r="G13" t="n">
+        <v>97.02021026611328</v>
+      </c>
+      <c r="H13" t="n">
+        <v>12.51860427856445</v>
+      </c>
+      <c r="I13" t="n">
+        <v>12.0368595123291</v>
+      </c>
+      <c r="J13" t="n">
+        <v>178.1204681396484</v>
+      </c>
+      <c r="K13" t="n">
+        <v>194.4346466064453</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>70000</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.8646729588508606</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4265280067920685</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8276968598365784</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8786906003952026</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.8721616268157959</v>
+      </c>
+      <c r="G14" t="n">
+        <v>97.02021026611328</v>
+      </c>
+      <c r="H14" t="n">
+        <v>12.52402591705322</v>
+      </c>
+      <c r="I14" t="n">
+        <v>12.03680610656738</v>
+      </c>
+      <c r="J14" t="n">
+        <v>178.1204681396484</v>
+      </c>
+      <c r="K14" t="n">
+        <v>194.4124450683594</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>80000</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.8646729588508606</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4265280067920685</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8276968598365784</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8786906003952026</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.8721616268157959</v>
+      </c>
+      <c r="G15" t="n">
+        <v>97.02021026611328</v>
+      </c>
+      <c r="H15" t="n">
+        <v>12.52402591705322</v>
+      </c>
+      <c r="I15" t="n">
+        <v>12.03680610656738</v>
+      </c>
+      <c r="J15" t="n">
+        <v>178.1204681396484</v>
+      </c>
+      <c r="K15" t="n">
+        <v>194.4124450683594</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>90000</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.8646729588508606</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.4265280067920685</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8276968598365784</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8786906003952026</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.8721616268157959</v>
+      </c>
+      <c r="G16" t="n">
+        <v>97.02021026611328</v>
+      </c>
+      <c r="H16" t="n">
+        <v>12.52402591705322</v>
+      </c>
+      <c r="I16" t="n">
+        <v>12.03680610656738</v>
+      </c>
+      <c r="J16" t="n">
+        <v>178.1204681396484</v>
+      </c>
+      <c r="K16" t="n">
+        <v>194.4124450683594</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>sim01</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.8646729588508606</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.4265280067920685</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8276968598365784</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8786906003952026</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.8721588850021362</v>
+      </c>
+      <c r="G17" t="n">
+        <v>97.02021026611328</v>
+      </c>
+      <c r="H17" t="n">
+        <v>12.51860427856445</v>
+      </c>
+      <c r="I17" t="n">
+        <v>12.0368595123291</v>
+      </c>
+      <c r="J17" t="n">
+        <v>178.1204681396484</v>
+      </c>
+      <c r="K17" t="n">
+        <v>194.4346466064453</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>real01</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.8620919585227966</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4265280067920685</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.8276968598365784</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.8786906003952026</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.8719646334648132</v>
+      </c>
+      <c r="G18" t="n">
+        <v>97.02229309082031</v>
+      </c>
+      <c r="H18" t="n">
+        <v>15.13510894775391</v>
+      </c>
+      <c r="I18" t="n">
+        <v>12.15297985076904</v>
+      </c>
+      <c r="J18" t="n">
+        <v>178.1206665039062</v>
+      </c>
+      <c r="K18" t="n">
+        <v>194.7444915771484</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/log/c620_op_log.xlsx
+++ b/log/c620_op_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1108,6 +1108,154 @@
         <v>194.7444915771484</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>test001</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.8645328283309937</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4417343735694885</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.8010339736938477</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.8803650736808777</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.872162938117981</v>
+      </c>
+      <c r="G19" t="n">
+        <v>137.7111053466797</v>
+      </c>
+      <c r="H19" t="n">
+        <v>14.42108535766602</v>
+      </c>
+      <c r="I19" t="n">
+        <v>16.41798400878906</v>
+      </c>
+      <c r="J19" t="n">
+        <v>178.1207581</v>
+      </c>
+      <c r="K19" t="n">
+        <v>192.7762542724609</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>test001</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.8645328283309937</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4417343735694885</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.8010339736938477</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.8803650736808777</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.872162938117981</v>
+      </c>
+      <c r="G20" t="n">
+        <v>137.7111053466797</v>
+      </c>
+      <c r="H20" t="n">
+        <v>14.42108535766602</v>
+      </c>
+      <c r="I20" t="n">
+        <v>16.41798400878906</v>
+      </c>
+      <c r="J20" t="n">
+        <v>177.5011157247129</v>
+      </c>
+      <c r="K20" t="n">
+        <v>194.7291073252856</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>test001</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.8645328283309937</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.4417343735694885</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.8010339736938477</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.8803650736808777</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.872162938117981</v>
+      </c>
+      <c r="G21" t="n">
+        <v>137.7111053466797</v>
+      </c>
+      <c r="H21" t="n">
+        <v>14.42108535766602</v>
+      </c>
+      <c r="I21" t="n">
+        <v>16.41798400878906</v>
+      </c>
+      <c r="J21" t="n">
+        <v>178.1207581</v>
+      </c>
+      <c r="K21" t="n">
+        <v>193.061576933754</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>test001</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.8645328283309937</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4417343735694885</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.8010339736938477</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.8803650736808777</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.872162938117981</v>
+      </c>
+      <c r="G22" t="n">
+        <v>137.7111053466797</v>
+      </c>
+      <c r="H22" t="n">
+        <v>14.42108535766602</v>
+      </c>
+      <c r="I22" t="n">
+        <v>16.41798400878906</v>
+      </c>
+      <c r="J22" t="n">
+        <v>178.1207581</v>
+      </c>
+      <c r="K22" t="n">
+        <v>193.4808217206904</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/log/c620_op_log.xlsx
+++ b/log/c620_op_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1108,154 +1108,6 @@
         <v>194.7444915771484</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>test001</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.8645328283309937</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.4417343735694885</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.8010339736938477</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.8803650736808777</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.872162938117981</v>
-      </c>
-      <c r="G19" t="n">
-        <v>137.7111053466797</v>
-      </c>
-      <c r="H19" t="n">
-        <v>14.42108535766602</v>
-      </c>
-      <c r="I19" t="n">
-        <v>16.41798400878906</v>
-      </c>
-      <c r="J19" t="n">
-        <v>178.1207581</v>
-      </c>
-      <c r="K19" t="n">
-        <v>192.7762542724609</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>test001</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.8645328283309937</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.4417343735694885</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.8010339736938477</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.8803650736808777</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.872162938117981</v>
-      </c>
-      <c r="G20" t="n">
-        <v>137.7111053466797</v>
-      </c>
-      <c r="H20" t="n">
-        <v>14.42108535766602</v>
-      </c>
-      <c r="I20" t="n">
-        <v>16.41798400878906</v>
-      </c>
-      <c r="J20" t="n">
-        <v>177.5011157247129</v>
-      </c>
-      <c r="K20" t="n">
-        <v>194.7291073252856</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>test001</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.8645328283309937</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.4417343735694885</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.8010339736938477</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.8803650736808777</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.872162938117981</v>
-      </c>
-      <c r="G21" t="n">
-        <v>137.7111053466797</v>
-      </c>
-      <c r="H21" t="n">
-        <v>14.42108535766602</v>
-      </c>
-      <c r="I21" t="n">
-        <v>16.41798400878906</v>
-      </c>
-      <c r="J21" t="n">
-        <v>178.1207581</v>
-      </c>
-      <c r="K21" t="n">
-        <v>193.061576933754</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>test001</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.8645328283309937</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.4417343735694885</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.8010339736938477</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.8803650736808777</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.872162938117981</v>
-      </c>
-      <c r="G22" t="n">
-        <v>137.7111053466797</v>
-      </c>
-      <c r="H22" t="n">
-        <v>14.42108535766602</v>
-      </c>
-      <c r="I22" t="n">
-        <v>16.41798400878906</v>
-      </c>
-      <c r="J22" t="n">
-        <v>178.1207581</v>
-      </c>
-      <c r="K22" t="n">
-        <v>193.4808217206904</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
